--- a/Ch04Ex04/Ch04Ex04.xlsx
+++ b/Ch04Ex04/Ch04Ex04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Benefits</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>ROI</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -56,8 +62,16 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +410,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,20 +425,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="C4">
         <v>40000</v>
@@ -456,7 +493,7 @@
       </c>
       <c r="B6">
         <f>B4*B5</f>
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:E6" si="0">C4*C5</f>
@@ -472,7 +509,7 @@
       </c>
       <c r="F6">
         <f>SUM(B6:E6)</f>
-        <v>243200</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,7 +577,7 @@
       </c>
       <c r="B12">
         <f>B10-B6</f>
-        <v>-140000</v>
+        <v>-300000</v>
       </c>
       <c r="C12">
         <f>C10-C6</f>
@@ -556,7 +593,7 @@
       </c>
       <c r="F12" s="2">
         <f>F10-F6</f>
-        <v>272800</v>
+        <v>112800</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -565,19 +602,19 @@
       </c>
       <c r="B13">
         <f>B10-B6</f>
-        <v>-140000</v>
+        <v>-300000</v>
       </c>
       <c r="C13">
         <f>B13+C12</f>
-        <v>8800</v>
+        <v>-151200</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:E13" si="2">C13+D12</f>
-        <v>146400</v>
+        <v>-13600</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>272800</v>
+        <v>112800</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,10 +623,11 @@
       </c>
       <c r="B15" s="1">
         <f>(F10-F6)/F6</f>
-        <v>1.1217105263157894</v>
+        <v>0.27976190476190477</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>